--- a/Optimisation data/combined/Biomarkers + Clinical C/top/SHAP/LogisticRegression_optimisation.xlsx
+++ b/Optimisation data/combined/Biomarkers + Clinical C/top/SHAP/LogisticRegression_optimisation.xlsx
@@ -157,7 +157,7 @@
     <t>{'C': 1.0, 'class_weight': None, 'dual': False, 'fit_intercept': False, 'max_iter': 10000, 'multi_class': 'auto', 'penalty': 'none', 'random_state': 10, 'tol': 0.0001, 'verbose': 0, 'warm_start': True}</t>
   </si>
   <si>
-    <t>[0.66507177 0.52631579 0.59808612 0.83732057 0.555     ]</t>
+    <t>[0.95833333 0.8        0.68333333 0.71666667 0.86666667]</t>
   </si>
 </sst>
 </file>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04091663360595703</v>
+        <v>0.002811622619628906</v>
       </c>
       <c r="C2">
-        <v>0.009014948351122303</v>
+        <v>0.0008941970658140667</v>
       </c>
       <c r="D2">
-        <v>0.01048517227172852</v>
+        <v>0.001066207885742188</v>
       </c>
       <c r="E2">
-        <v>0.003840228757330573</v>
+        <v>0.0001935308680792008</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -657,37 +657,37 @@
         <v>31</v>
       </c>
       <c r="R2">
-        <v>0.4137931034482759</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="S2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T2">
-        <v>0.5333333333333333</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U2">
-        <v>0.4285714285714285</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="V2">
-        <v>0.631578947368421</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="W2">
-        <v>0.5014553625442917</v>
+        <v>0.6200713012477719</v>
       </c>
       <c r="X2">
-        <v>0.0786730067182161</v>
+        <v>0.1053980774887464</v>
       </c>
       <c r="Y2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="s">
         <v>47</v>
       </c>
       <c r="AA2">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB2">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04121356010437012</v>
+        <v>0.002961254119873047</v>
       </c>
       <c r="C3">
-        <v>0.0366251404925468</v>
+        <v>0.0006964040200510053</v>
       </c>
       <c r="D3">
-        <v>0.003998327255249024</v>
+        <v>0.00106959342956543</v>
       </c>
       <c r="E3">
-        <v>0.001673554806918829</v>
+        <v>0.0003110775179630426</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -743,37 +743,37 @@
         <v>32</v>
       </c>
       <c r="R3">
-        <v>0.6285714285714286</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="S3">
-        <v>0.6285714285714286</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T3">
-        <v>0.6060606060606061</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="U3">
-        <v>0.6206896551724138</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="V3">
-        <v>0.6666666666666667</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W3">
-        <v>0.6301119570085086</v>
+        <v>0.6273549979432331</v>
       </c>
       <c r="X3">
-        <v>0.02004116018713882</v>
+        <v>0.08251428349620102</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="s">
         <v>47</v>
       </c>
       <c r="AA3">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB3">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -781,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01773676872253418</v>
+        <v>0.004684925079345703</v>
       </c>
       <c r="C4">
-        <v>0.01660075537336441</v>
+        <v>0.003166224026435318</v>
       </c>
       <c r="D4">
-        <v>0.003985261917114258</v>
+        <v>0.00211176872253418</v>
       </c>
       <c r="E4">
-        <v>0.002217016293093854</v>
+        <v>0.0007287083051314336</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -826,37 +826,37 @@
         <v>33</v>
       </c>
       <c r="R4">
-        <v>0.6666666666666667</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="S4">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="T4">
-        <v>0.5945945945945946</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U4">
-        <v>0.6829268292682926</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="V4">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="W4">
-        <v>0.6421709514392442</v>
+        <v>0.5498148909913616</v>
       </c>
       <c r="X4">
-        <v>0.03715648148714518</v>
+        <v>0.04638442729097009</v>
       </c>
       <c r="Y4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="s">
         <v>47</v>
       </c>
       <c r="AA4">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB4">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -864,16 +864,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009973335266113281</v>
+        <v>0.002970027923583985</v>
       </c>
       <c r="C5">
-        <v>0.003134642943828616</v>
+        <v>0.001225764849911491</v>
       </c>
       <c r="D5">
-        <v>0.004063749313354492</v>
+        <v>0.00219874382019043</v>
       </c>
       <c r="E5">
-        <v>0.002854966658176666</v>
+        <v>0.00157747965582195</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -909,37 +909,37 @@
         <v>34</v>
       </c>
       <c r="R5">
-        <v>0.7027027027027027</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="S5">
-        <v>0.6486486486486486</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T5">
-        <v>0.6666666666666667</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="U5">
-        <v>0.7096774193548387</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V5">
-        <v>0.7</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W5">
-        <v>0.6855390874745714</v>
+        <v>0.5720759632524338</v>
       </c>
       <c r="X5">
-        <v>0.02367884916396554</v>
+        <v>0.158253407555595</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="s">
         <v>47</v>
       </c>
       <c r="AA5">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB5">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -947,16 +947,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01220073699951172</v>
+        <v>0.00346522331237793</v>
       </c>
       <c r="C6">
-        <v>0.0041848015011723</v>
+        <v>0.002766159851852919</v>
       </c>
       <c r="D6">
-        <v>0.003339576721191406</v>
+        <v>0.001352643966674805</v>
       </c>
       <c r="E6">
-        <v>0.00152487042300534</v>
+        <v>0.0007227511048941182</v>
       </c>
       <c r="F6">
         <v>0.01</v>
@@ -995,37 +995,37 @@
         <v>35</v>
       </c>
       <c r="R6">
-        <v>0.5882352941176471</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="S6">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T6">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U6">
-        <v>0.4615384615384616</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="V6">
-        <v>0.631578947368421</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="W6">
-        <v>0.5819848263191917</v>
+        <v>0.6797385620915033</v>
       </c>
       <c r="X6">
-        <v>0.06245130898771563</v>
+        <v>0.1330510917647004</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="s">
         <v>47</v>
       </c>
       <c r="AA6">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB6">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1033,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01017427444458008</v>
+        <v>0.003905487060546875</v>
       </c>
       <c r="C7">
-        <v>0.002210705092383247</v>
+        <v>0.001565299971844709</v>
       </c>
       <c r="D7">
-        <v>0.007096004486083984</v>
+        <v>0.001105594635009766</v>
       </c>
       <c r="E7">
-        <v>0.00738120798154169</v>
+        <v>0.0005565274599280203</v>
       </c>
       <c r="F7">
         <v>0.01</v>
@@ -1081,37 +1081,37 @@
         <v>36</v>
       </c>
       <c r="R7">
-        <v>0.6285714285714286</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="S7">
-        <v>0.6285714285714286</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T7">
-        <v>0.6060606060606061</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="U7">
-        <v>0.6206896551724138</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="V7">
-        <v>0.6666666666666667</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W7">
-        <v>0.6301119570085086</v>
+        <v>0.6273549979432331</v>
       </c>
       <c r="X7">
-        <v>0.02004116018713882</v>
+        <v>0.08251428349620102</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="s">
         <v>47</v>
       </c>
       <c r="AA7">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB7">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1119,16 +1119,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.008259248733520509</v>
+        <v>0.002144050598144531</v>
       </c>
       <c r="C8">
-        <v>0.003389144387830734</v>
+        <v>0.0009256619237254871</v>
       </c>
       <c r="D8">
-        <v>0.003374624252319336</v>
+        <v>0.001089811325073242</v>
       </c>
       <c r="E8">
-        <v>0.001417158096024637</v>
+        <v>0.0007141400218358535</v>
       </c>
       <c r="F8">
         <v>0.01</v>
@@ -1164,37 +1164,37 @@
         <v>37</v>
       </c>
       <c r="R8">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="S8">
-        <v>0.6842105263157895</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T8">
-        <v>0.631578947368421</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U8">
-        <v>0.6666666666666667</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="V8">
-        <v>0.6153846153846154</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="W8">
-        <v>0.6567110082899558</v>
+        <v>0.6393990323402089</v>
       </c>
       <c r="X8">
-        <v>0.02841133563720606</v>
+        <v>0.1178701502869808</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
       </c>
       <c r="AA8">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB8">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1202,16 +1202,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01356616020202637</v>
+        <v>0.002008676528930664</v>
       </c>
       <c r="C9">
-        <v>0.005455915161213548</v>
+        <v>0.0006777987020905122</v>
       </c>
       <c r="D9">
-        <v>0.003535032272338867</v>
+        <v>0.0006613254547119141</v>
       </c>
       <c r="E9">
-        <v>0.002046679126199957</v>
+        <v>3.62337885725987E-05</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -1247,37 +1247,37 @@
         <v>38</v>
       </c>
       <c r="R9">
-        <v>0.7027027027027027</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="S9">
-        <v>0.6486486486486486</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T9">
-        <v>0.6666666666666667</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="U9">
-        <v>0.7096774193548387</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V9">
-        <v>0.7</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W9">
-        <v>0.6855390874745714</v>
+        <v>0.5720759632524338</v>
       </c>
       <c r="X9">
-        <v>0.02367884916396554</v>
+        <v>0.158253407555595</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="s">
         <v>47</v>
       </c>
       <c r="AA9">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB9">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1285,16 +1285,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.007234764099121094</v>
+        <v>0.001474666595458984</v>
       </c>
       <c r="C10">
-        <v>0.002065032176493019</v>
+        <v>0.0001740659022530774</v>
       </c>
       <c r="D10">
-        <v>0.003220415115356445</v>
+        <v>0.000644063949584961</v>
       </c>
       <c r="E10">
-        <v>0.00173814034031071</v>
+        <v>2.24967101866489E-05</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -1333,37 +1333,37 @@
         <v>39</v>
       </c>
       <c r="R10">
-        <v>0.6285714285714286</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="S10">
-        <v>0.6470588235294117</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T10">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U10">
-        <v>0.6206896551724138</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="V10">
-        <v>0.631578947368421</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W10">
-        <v>0.6305797709283351</v>
+        <v>0.6405525846702317</v>
       </c>
       <c r="X10">
-        <v>0.00900598912378016</v>
+        <v>0.1017900231687662</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
       </c>
       <c r="AA10">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB10">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1371,16 +1371,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.004812097549438477</v>
+        <v>0.001799297332763672</v>
       </c>
       <c r="C11">
-        <v>0.001130650913141466</v>
+        <v>6.809635310845494E-05</v>
       </c>
       <c r="D11">
-        <v>0.002692556381225586</v>
+        <v>0.0006150245666503906</v>
       </c>
       <c r="E11">
-        <v>0.001493219672990278</v>
+        <v>1.9875359839964E-05</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -1419,37 +1419,37 @@
         <v>40</v>
       </c>
       <c r="R11">
-        <v>0.6285714285714286</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="S11">
-        <v>0.6285714285714286</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T11">
-        <v>0.6060606060606061</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="U11">
-        <v>0.6206896551724138</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="V11">
-        <v>0.6666666666666667</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W11">
-        <v>0.6301119570085086</v>
+        <v>0.6273549979432331</v>
       </c>
       <c r="X11">
-        <v>0.02004116018713882</v>
+        <v>0.08251428349620102</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="s">
         <v>47</v>
       </c>
       <c r="AA11">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB11">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1457,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.003916358947753907</v>
+        <v>0.001299810409545898</v>
       </c>
       <c r="C12">
-        <v>0.0009081670268204674</v>
+        <v>8.699428405286021E-05</v>
       </c>
       <c r="D12">
-        <v>0.001826047897338867</v>
+        <v>0.0006105899810791016</v>
       </c>
       <c r="E12">
-        <v>0.0004506584677464443</v>
+        <v>3.204154111039021E-05</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -1502,37 +1502,37 @@
         <v>41</v>
       </c>
       <c r="R12">
-        <v>0.7027027027027027</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="S12">
-        <v>0.6486486486486486</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T12">
-        <v>0.6842105263157895</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="U12">
-        <v>0.7499999999999999</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="V12">
-        <v>0.6829268292682926</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="W12">
-        <v>0.6936977413870867</v>
+        <v>0.6360180995475113</v>
       </c>
       <c r="X12">
-        <v>0.03312544100067901</v>
+        <v>0.1112178535385477</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z12" t="s">
         <v>47</v>
       </c>
       <c r="AA12">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB12">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1540,16 +1540,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.004811668395996093</v>
+        <v>0.001632308959960937</v>
       </c>
       <c r="C13">
-        <v>0.000864388452135105</v>
+        <v>0.0002655784609799283</v>
       </c>
       <c r="D13">
-        <v>0.00238652229309082</v>
+        <v>0.0006282806396484375</v>
       </c>
       <c r="E13">
-        <v>0.0007968389412182627</v>
+        <v>2.956098111380012E-05</v>
       </c>
       <c r="F13">
         <v>0.1</v>
@@ -1585,37 +1585,37 @@
         <v>42</v>
       </c>
       <c r="R13">
-        <v>0.7027027027027027</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="S13">
-        <v>0.6486486486486486</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T13">
-        <v>0.6666666666666667</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="U13">
-        <v>0.7096774193548387</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V13">
-        <v>0.7</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W13">
-        <v>0.6855390874745714</v>
+        <v>0.5720759632524338</v>
       </c>
       <c r="X13">
-        <v>0.02367884916396554</v>
+        <v>0.158253407555595</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="s">
         <v>47</v>
       </c>
       <c r="AA13">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB13">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1623,16 +1623,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.005590200424194336</v>
+        <v>0.002530002593994141</v>
       </c>
       <c r="C14">
-        <v>0.001405296212878252</v>
+        <v>0.001488350742587671</v>
       </c>
       <c r="D14">
-        <v>0.002906942367553711</v>
+        <v>0.0009104728698730469</v>
       </c>
       <c r="E14">
-        <v>0.002156145422115231</v>
+        <v>0.0005524923566307804</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1671,37 +1671,37 @@
         <v>43</v>
       </c>
       <c r="R14">
-        <v>0.6285714285714286</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="S14">
-        <v>0.6285714285714286</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="T14">
-        <v>0.6060606060606061</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U14">
-        <v>0.6206896551724138</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V14">
-        <v>0.631578947368421</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W14">
-        <v>0.6230944131488595</v>
+        <v>0.6465656565656565</v>
       </c>
       <c r="X14">
-        <v>0.009251120598566864</v>
+        <v>0.08800084406566655</v>
       </c>
       <c r="Y14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Z14" t="s">
         <v>47</v>
       </c>
       <c r="AA14">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB14">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1709,16 +1709,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.006664514541625977</v>
+        <v>0.002559614181518555</v>
       </c>
       <c r="C15">
-        <v>0.0007792152393060935</v>
+        <v>0.001433686733064974</v>
       </c>
       <c r="D15">
-        <v>0.002653217315673828</v>
+        <v>0.0007744312286376953</v>
       </c>
       <c r="E15">
-        <v>0.0006536617895463801</v>
+        <v>0.0003114814195577639</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1757,37 +1757,37 @@
         <v>44</v>
       </c>
       <c r="R15">
-        <v>0.6285714285714286</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="S15">
-        <v>0.6285714285714286</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T15">
-        <v>0.6060606060606061</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="U15">
-        <v>0.6206896551724138</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="V15">
-        <v>0.6666666666666667</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W15">
-        <v>0.6301119570085086</v>
+        <v>0.6273549979432331</v>
       </c>
       <c r="X15">
-        <v>0.02004116018713882</v>
+        <v>0.08251428349620102</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z15" t="s">
         <v>47</v>
       </c>
       <c r="AA15">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB15">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1795,16 +1795,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.005547237396240234</v>
+        <v>0.001432466506958008</v>
       </c>
       <c r="C16">
-        <v>0.002741118174539102</v>
+        <v>0.0001146639597491264</v>
       </c>
       <c r="D16">
-        <v>0.002717828750610351</v>
+        <v>0.0005985260009765625</v>
       </c>
       <c r="E16">
-        <v>0.0009220362125731404</v>
+        <v>1.319607529059128E-05</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1840,37 +1840,37 @@
         <v>45</v>
       </c>
       <c r="R16">
-        <v>0.7027027027027027</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="S16">
-        <v>0.6486486486486486</v>
+        <v>0.625</v>
       </c>
       <c r="T16">
-        <v>0.6666666666666667</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="U16">
-        <v>0.7096774193548387</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="V16">
-        <v>0.7</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="W16">
-        <v>0.6855390874745714</v>
+        <v>0.5800226244343892</v>
       </c>
       <c r="X16">
-        <v>0.02367884916396554</v>
+        <v>0.1757589142019813</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="s">
         <v>47</v>
       </c>
       <c r="AA16">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB16">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1878,16 +1878,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.005152130126953125</v>
+        <v>0.00157008171081543</v>
       </c>
       <c r="C17">
-        <v>0.000998647046862764</v>
+        <v>0.0001842266763172697</v>
       </c>
       <c r="D17">
-        <v>0.002342891693115234</v>
+        <v>0.0006055831909179688</v>
       </c>
       <c r="E17">
-        <v>0.0006621141483653855</v>
+        <v>2.400959140325437E-05</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1923,37 +1923,37 @@
         <v>46</v>
       </c>
       <c r="R17">
-        <v>0.7027027027027027</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="S17">
-        <v>0.6486486486486486</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="T17">
-        <v>0.6666666666666667</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="U17">
-        <v>0.7096774193548387</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V17">
-        <v>0.7</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W17">
-        <v>0.6855390874745714</v>
+        <v>0.5720759632524338</v>
       </c>
       <c r="X17">
-        <v>0.02367884916396554</v>
+        <v>0.158253407555595</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="s">
         <v>47</v>
       </c>
       <c r="AA17">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="AB17">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
   </sheetData>
